--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23181F6D-817F-A949-A6FB-B6E91D0CEECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6A035-9AAA-D447-B486-E44D8F720FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="eco_trap_schedule" sheetId="3" r:id="rId1"/>
     <sheet name="weekly_ecotrap_tuesday_start" sheetId="4" r:id="rId2"/>
+    <sheet name="weekly_ecotrap_wednesday_start" sheetId="5" r:id="rId3"/>
+    <sheet name="weekly_ecotrap_thursday_start " sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="23">
   <si>
     <t>Wednesday</t>
   </si>
@@ -79,14 +81,7 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Sample plant #1</t>
-  </si>
-  <si>
     <t xml:space="preserve">EcoTrap Fecundity Experiment #      </t>
-  </si>
-  <si>
-    <t>Count babies
-Move alates to unsprayed plant #2</t>
   </si>
   <si>
     <t>Count babies
@@ -110,10 +105,15 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
     <t>Block #2</t>
+  </si>
+  <si>
+    <t>Count babies
+Move alates to unsprayed plant #2
+Sample plant #1</t>
+  </si>
+  <si>
+    <t>incomplete</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -257,53 +263,123 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -649,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="61.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,18 +735,23 @@
     <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="61.6640625" style="7"/>
   </cols>
@@ -744,462 +825,462 @@
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="E2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>16</v>
+      <c r="Q2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>20</v>
+      <c r="A5" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
+        <v>45812</v>
+      </c>
+      <c r="D5" s="19">
+        <v>45813</v>
+      </c>
+      <c r="E5" s="19">
+        <v>45814</v>
+      </c>
+      <c r="F5" s="19">
+        <v>45815</v>
+      </c>
+      <c r="G5" s="19">
+        <v>45816</v>
+      </c>
+      <c r="H5" s="19">
+        <v>45817</v>
+      </c>
+      <c r="I5" s="19">
+        <v>45818</v>
+      </c>
+      <c r="J5" s="19">
         <v>45819</v>
       </c>
-      <c r="D5" s="21">
+      <c r="K5" s="19">
         <v>45820</v>
       </c>
-      <c r="E5" s="21">
+      <c r="L5" s="19">
         <v>45821</v>
       </c>
-      <c r="F5" s="21">
+      <c r="M5" s="19">
         <v>45822</v>
       </c>
-      <c r="G5" s="21">
+      <c r="N5" s="19">
         <v>45823</v>
       </c>
-      <c r="H5" s="21">
+      <c r="O5" s="19">
         <v>45824</v>
       </c>
-      <c r="I5" s="21">
+      <c r="P5" s="19">
         <v>45825</v>
       </c>
-      <c r="J5" s="21">
+      <c r="Q5" s="19">
         <v>45826</v>
       </c>
-      <c r="K5" s="21">
+      <c r="R5" s="19">
         <v>45827</v>
       </c>
-      <c r="L5" s="21">
+      <c r="S5" s="19">
         <v>45828</v>
       </c>
-      <c r="M5" s="21">
+      <c r="T5" s="19">
         <v>45829</v>
       </c>
-      <c r="N5" s="21">
+      <c r="U5" s="19">
         <v>45830</v>
       </c>
-      <c r="O5" s="21">
+      <c r="V5" s="19">
         <v>45831</v>
       </c>
-      <c r="P5" s="21">
-        <v>45832</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>45833</v>
-      </c>
-      <c r="R5" s="21">
-        <v>45834</v>
-      </c>
-      <c r="S5" s="21">
-        <v>45835</v>
-      </c>
-      <c r="T5" s="21">
-        <v>45836</v>
-      </c>
-      <c r="U5" s="21">
-        <v>45837</v>
-      </c>
-      <c r="V5" s="21">
-        <v>45838</v>
-      </c>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" s="20" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>23</v>
+      <c r="A7" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
+        <v>45819</v>
+      </c>
+      <c r="D7" s="19">
+        <v>45820</v>
+      </c>
+      <c r="E7" s="19">
+        <v>45821</v>
+      </c>
+      <c r="F7" s="19">
+        <v>45822</v>
+      </c>
+      <c r="G7" s="19">
+        <v>45823</v>
+      </c>
+      <c r="H7" s="19">
+        <v>45824</v>
+      </c>
+      <c r="I7" s="19">
+        <v>45825</v>
+      </c>
+      <c r="J7" s="19">
         <v>45826</v>
       </c>
-      <c r="D7" s="21">
+      <c r="K7" s="19">
         <v>45827</v>
       </c>
-      <c r="E7" s="21">
+      <c r="L7" s="19">
         <v>45828</v>
       </c>
-      <c r="F7" s="21">
+      <c r="M7" s="19">
         <v>45829</v>
       </c>
-      <c r="G7" s="21">
+      <c r="N7" s="19">
         <v>45830</v>
       </c>
-      <c r="H7" s="21">
+      <c r="O7" s="19">
         <v>45831</v>
       </c>
-      <c r="I7" s="21">
+      <c r="P7" s="19">
         <v>45832</v>
       </c>
-      <c r="J7" s="21">
+      <c r="Q7" s="19">
         <v>45833</v>
       </c>
-      <c r="K7" s="21">
+      <c r="R7" s="19">
         <v>45834</v>
       </c>
-      <c r="L7" s="21">
+      <c r="S7" s="19">
         <v>45835</v>
       </c>
-      <c r="M7" s="21">
+      <c r="T7" s="19">
         <v>45836</v>
       </c>
-      <c r="N7" s="21">
+      <c r="U7" s="19">
         <v>45837</v>
       </c>
-      <c r="O7" s="21">
+      <c r="V7" s="19">
         <v>45838</v>
       </c>
-      <c r="P7" s="21">
-        <v>45839</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>45840</v>
-      </c>
-      <c r="R7" s="21">
-        <v>45841</v>
-      </c>
-      <c r="S7" s="21">
-        <v>45842</v>
-      </c>
-      <c r="T7" s="21">
-        <v>45843</v>
-      </c>
-      <c r="U7" s="21">
-        <v>45844</v>
-      </c>
-      <c r="V7" s="21">
-        <v>45845</v>
-      </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" s="20" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1209,6 +1290,33 @@
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C6:V6">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="incomplete">
+      <formula>NOT(ISERROR(SEARCH("incomplete",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:V8">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="incomplete">
+      <formula>NOT(ISERROR(SEARCH("incomplete",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:V6 C8:V8" xr:uid="{0D58F301-E56C-1F45-9133-88DA3DDA2D35}">
+      <formula1>"incomplete, in progress, complete"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1219,31 +1327,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="248" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E23"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1251,16 +1357,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>-1</v>
       </c>
@@ -1268,14 +1371,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1283,289 +1383,812 @@
         <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+      <c r="B6" s="22" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="B15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027BEE49-7D90-CD4D-8699-1E82EEEA44C8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="248" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5726811E-BA32-C946-91FB-662547BAAEEF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="248" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6A035-9AAA-D447-B486-E44D8F720FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D1145D-A125-9E4E-BAA1-65A1946DBFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="248" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/eco_traps_fecundity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D1145D-A125-9E4E-BAA1-65A1946DBFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5ACCBE-4ADD-8643-AA2F-3B80B25EABAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="eco_trap_schedule" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="24">
   <si>
     <t>Wednesday</t>
   </si>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>incomplete</t>
+  </si>
+  <si>
+    <t>Overnights
+set up tent</t>
   </si>
 </sst>
 </file>
@@ -240,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -299,41 +303,44 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -362,21 +369,6 @@
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -725,35 +717,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="61.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="61.6640625" style="7"/>
+    <col min="19" max="20" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="19.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -826,60 +814,60 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="22" t="s">
+      <c r="E2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="22" t="s">
+      <c r="K2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="22" t="s">
+      <c r="Q2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -890,64 +878,64 @@
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -955,69 +943,69 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="29" t="s">
+      <c r="V4" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1085,7 +1073,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
@@ -1151,75 +1139,75 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="19">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="D7" s="19">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="E7" s="19">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="F7" s="19">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G7" s="19">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="H7" s="19">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="I7" s="19">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="J7" s="19">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="K7" s="19">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="L7" s="19">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="M7" s="19">
-        <v>45829</v>
+        <v>45830</v>
       </c>
       <c r="N7" s="19">
-        <v>45830</v>
+        <v>45831</v>
       </c>
       <c r="O7" s="19">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="P7" s="19">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="Q7" s="19">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="R7" s="19">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="S7" s="19">
-        <v>45835</v>
+        <v>45836</v>
       </c>
       <c r="T7" s="19">
-        <v>45836</v>
+        <v>45837</v>
       </c>
       <c r="U7" s="19">
-        <v>45837</v>
+        <v>45838</v>
       </c>
       <c r="V7" s="19">
-        <v>45838</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1327,10 +1315,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="248" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,11 +1331,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1370,8 +1358,8 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>1</v>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1382,8 +1370,8 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>7</v>
+      <c r="C5" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1391,11 +1379,11 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>6</v>
+      <c r="B6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1403,11 +1391,11 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>5</v>
+      <c r="B7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1415,11 +1403,11 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>4</v>
+      <c r="B8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1427,11 +1415,11 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>2</v>
+      <c r="B9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1439,11 +1427,11 @@
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>0</v>
+      <c r="B10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1454,8 +1442,8 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>1</v>
+      <c r="C11" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1463,11 +1451,11 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>7</v>
+      <c r="B12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1475,11 +1463,11 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>6</v>
+      <c r="B13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -1487,11 +1475,11 @@
       <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>5</v>
+      <c r="B14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -1499,11 +1487,11 @@
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>4</v>
+      <c r="B15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -1511,11 +1499,11 @@
       <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>2</v>
+      <c r="B16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -1526,8 +1514,8 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>0</v>
+      <c r="C17" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -1535,11 +1523,11 @@
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1</v>
+      <c r="B18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -1547,11 +1535,11 @@
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>7</v>
+      <c r="B19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -1559,11 +1547,11 @@
       <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>6</v>
+      <c r="B20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -1571,11 +1559,11 @@
       <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>5</v>
+      <c r="B21" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -1583,11 +1571,11 @@
       <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>4</v>
+      <c r="B22" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1598,10 +1586,16 @@
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>2</v>
+      <c r="C23" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1620,7 +1614,7 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="248" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="248" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1634,11 +1628,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1682,7 +1676,7 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -1694,7 +1688,7 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1706,7 +1700,7 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -1718,7 +1712,7 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1730,7 +1724,7 @@
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1754,7 +1748,7 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1766,7 +1760,7 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1778,7 +1772,7 @@
       <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -1790,7 +1784,7 @@
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -1802,7 +1796,7 @@
       <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -1826,7 +1820,7 @@
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -1838,7 +1832,7 @@
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1850,7 +1844,7 @@
       <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -1862,7 +1856,7 @@
       <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -1874,7 +1868,7 @@
       <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -1910,7 +1904,7 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="248" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="248" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1924,11 +1918,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1972,7 +1966,7 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -1984,7 +1978,7 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -1996,7 +1990,7 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2008,7 +2002,7 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2020,7 +2014,7 @@
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -2044,7 +2038,7 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2056,7 +2050,7 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -2068,7 +2062,7 @@
       <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2080,7 +2074,7 @@
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -2092,7 +2086,7 @@
       <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2116,7 +2110,7 @@
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2128,7 +2122,7 @@
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2140,7 +2134,7 @@
       <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -2152,7 +2146,7 @@
       <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -2164,7 +2158,7 @@
       <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5ACCBE-4ADD-8643-AA2F-3B80B25EABAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EED853-DA5B-A047-A6EF-14986C02EA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="26">
   <si>
     <t>Wednesday</t>
   </si>
@@ -118,6 +118,12 @@
   <si>
     <t>Overnights
 set up tent</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday </t>
   </si>
 </sst>
 </file>
@@ -327,14 +333,14 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,30 +723,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="19.5" style="7"/>
   </cols>
   <sheetData>
@@ -749,67 +759,67 @@
         <v>12</v>
       </c>
       <c r="C1" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T1" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U1" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V1" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="85" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -831,8 +841,8 @@
       <c r="H2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>3</v>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
@@ -849,8 +859,8 @@
       <c r="N2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="20" t="s">
-        <v>3</v>
+      <c r="O2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -867,8 +877,8 @@
       <c r="T2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="20" t="s">
-        <v>3</v>
+      <c r="U2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>14</v>
@@ -944,144 +954,144 @@
         <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="F4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="H4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="I4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="L4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="O4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="P4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="21" t="s">
+      <c r="Q4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="S4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="T4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="U4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="V4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="27" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="19">
+        <v>45811</v>
+      </c>
+      <c r="D5" s="19">
         <v>45812</v>
       </c>
-      <c r="D5" s="19">
+      <c r="E5" s="19">
         <v>45813</v>
       </c>
-      <c r="E5" s="19">
+      <c r="F5" s="19">
         <v>45814</v>
       </c>
-      <c r="F5" s="19">
+      <c r="G5" s="19">
         <v>45815</v>
       </c>
-      <c r="G5" s="19">
+      <c r="H5" s="19">
         <v>45816</v>
       </c>
-      <c r="H5" s="19">
+      <c r="I5" s="19">
         <v>45817</v>
       </c>
-      <c r="I5" s="19">
+      <c r="J5" s="19">
         <v>45818</v>
       </c>
-      <c r="J5" s="19">
+      <c r="K5" s="19">
         <v>45819</v>
       </c>
-      <c r="K5" s="19">
+      <c r="L5" s="19">
         <v>45820</v>
       </c>
-      <c r="L5" s="19">
+      <c r="M5" s="19">
         <v>45821</v>
       </c>
-      <c r="M5" s="19">
+      <c r="N5" s="19">
         <v>45822</v>
       </c>
-      <c r="N5" s="19">
+      <c r="O5" s="19">
         <v>45823</v>
       </c>
-      <c r="O5" s="19">
+      <c r="P5" s="19">
         <v>45824</v>
       </c>
-      <c r="P5" s="19">
+      <c r="Q5" s="19">
         <v>45825</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="R5" s="19">
         <v>45826</v>
       </c>
-      <c r="R5" s="19">
+      <c r="S5" s="19">
         <v>45827</v>
       </c>
-      <c r="S5" s="19">
+      <c r="T5" s="19">
         <v>45828</v>
       </c>
-      <c r="T5" s="19">
+      <c r="U5" s="19">
         <v>45829</v>
       </c>
-      <c r="U5" s="19">
+      <c r="V5" s="19">
         <v>45830</v>
       </c>
-      <c r="V5" s="19">
-        <v>45831</v>
-      </c>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>22</v>
@@ -1139,7 +1149,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1207,7 +1217,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1331,11 +1341,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1592,10 +1602,10 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="30"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="30"/>
+      <c r="C25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1628,11 +1638,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1918,11 +1928,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EED853-DA5B-A047-A6EF-14986C02EA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC7822-64E9-9942-AD71-16DD30107892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="48">
   <si>
     <t>Wednesday</t>
   </si>
@@ -124,6 +124,72 @@
   </si>
   <si>
     <t xml:space="preserve">Tuesday </t>
+  </si>
+  <si>
+    <t>Block #3</t>
+  </si>
+  <si>
+    <t>Thursday, June 12, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 13, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 14, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 15, 2025</t>
+  </si>
+  <si>
+    <t>Monday, June 16, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 17, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 18, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 19, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 20, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 21, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 22, 2025</t>
+  </si>
+  <si>
+    <t>Monday, June 23, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, June 24, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, June 25, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, June 26, 2025</t>
+  </si>
+  <si>
+    <t>Friday, June 27, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, June 28, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, June 29, 2025</t>
+  </si>
+  <si>
+    <t>Monday, June 30, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, July 1, 2025</t>
+  </si>
+  <si>
+    <t>Block #4</t>
   </si>
 </sst>
 </file>
@@ -133,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,6 +229,19 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -223,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -246,11 +325,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -336,7 +465,22 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,7 +490,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -721,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1174,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1083,7 +1242,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
@@ -1094,25 +1253,25 @@
         <v>24</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>22</v>
@@ -1149,7 +1308,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1217,7 +1376,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1282,36 +1441,317 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19">
+        <v>45820</v>
+      </c>
+      <c r="D9" s="19">
+        <v>45821</v>
+      </c>
+      <c r="E9" s="19">
+        <v>45822</v>
+      </c>
+      <c r="F9" s="19">
+        <v>45823</v>
+      </c>
+      <c r="G9" s="19">
+        <v>45824</v>
+      </c>
+      <c r="H9" s="19">
+        <v>45825</v>
+      </c>
+      <c r="I9" s="19">
+        <v>45826</v>
+      </c>
+      <c r="J9" s="19">
+        <v>45827</v>
+      </c>
+      <c r="K9" s="19">
+        <v>45828</v>
+      </c>
+      <c r="L9" s="19">
+        <v>45829</v>
+      </c>
+      <c r="M9" s="19">
+        <v>45830</v>
+      </c>
+      <c r="N9" s="19">
+        <v>45831</v>
+      </c>
+      <c r="O9" s="19">
+        <v>45832</v>
+      </c>
+      <c r="P9" s="19">
+        <v>45833</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>45834</v>
+      </c>
+      <c r="R9" s="19">
+        <v>45835</v>
+      </c>
+      <c r="S9" s="19">
+        <v>45836</v>
+      </c>
+      <c r="T9" s="19">
+        <v>45837</v>
+      </c>
+      <c r="U9" s="19">
+        <v>45838</v>
+      </c>
+      <c r="V9" s="19">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
+      <c r="B12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C6:V6">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:V8">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C10:V10">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="incomplete">
+      <formula>NOT(ISERROR(SEARCH("incomplete",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:V6 C8:V8" xr:uid="{0D58F301-E56C-1F45-9133-88DA3DDA2D35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:V6 C8:V8 C10:V10" xr:uid="{0D58F301-E56C-1F45-9133-88DA3DDA2D35}">
       <formula1>"incomplete, in progress, complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1341,11 +1781,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1638,11 +2078,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1928,11 +2368,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC7822-64E9-9942-AD71-16DD30107892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136C92A-7F3A-3E45-B0CE-E31A3FD376F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,10 +892,10 @@
     <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
@@ -907,7 +907,7 @@
     <col min="17" max="17" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="19.5" style="7"/>
@@ -1274,19 +1274,19 @@
         <v>24</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="18" t="s">
         <v>22</v>
@@ -1315,64 +1315,64 @@
         <v>11</v>
       </c>
       <c r="C7" s="19">
-        <v>45820</v>
+        <v>45831</v>
       </c>
       <c r="D7" s="19">
-        <v>45821</v>
+        <v>45832</v>
       </c>
       <c r="E7" s="19">
-        <v>45822</v>
+        <v>45833</v>
       </c>
       <c r="F7" s="19">
-        <v>45823</v>
+        <v>45834</v>
       </c>
       <c r="G7" s="19">
-        <v>45824</v>
+        <v>45835</v>
       </c>
       <c r="H7" s="19">
-        <v>45825</v>
+        <v>45836</v>
       </c>
       <c r="I7" s="19">
-        <v>45826</v>
+        <v>45837</v>
       </c>
       <c r="J7" s="19">
-        <v>45827</v>
+        <v>45838</v>
       </c>
       <c r="K7" s="19">
-        <v>45828</v>
+        <v>45839</v>
       </c>
       <c r="L7" s="19">
-        <v>45829</v>
+        <v>45840</v>
       </c>
       <c r="M7" s="19">
-        <v>45830</v>
+        <v>45841</v>
       </c>
       <c r="N7" s="19">
-        <v>45831</v>
+        <v>45842</v>
       </c>
       <c r="O7" s="19">
-        <v>45832</v>
+        <v>45843</v>
       </c>
       <c r="P7" s="19">
-        <v>45833</v>
+        <v>45844</v>
       </c>
       <c r="Q7" s="19">
-        <v>45834</v>
+        <v>45845</v>
       </c>
       <c r="R7" s="19">
-        <v>45835</v>
+        <v>45846</v>
       </c>
       <c r="S7" s="19">
-        <v>45836</v>
+        <v>45847</v>
       </c>
       <c r="T7" s="19">
-        <v>45837</v>
+        <v>45848</v>
       </c>
       <c r="U7" s="19">
-        <v>45838</v>
+        <v>45849</v>
       </c>
       <c r="V7" s="19">
-        <v>45839</v>
+        <v>45850</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136C92A-7F3A-3E45-B0CE-E31A3FD376F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE82706D-40DA-AA43-90BE-0E8276AFCDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,10 +1289,10 @@
         <v>24</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S6" s="18" t="s">
         <v>22</v>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE82706D-40DA-AA43-90BE-0E8276AFCDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7FA494-18D3-1C4F-842E-C27A18E15512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,16 +1295,16 @@
         <v>24</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1381,7 +1381,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>22</v>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7FA494-18D3-1C4F-842E-C27A18E15512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE08E8-3B37-F348-A564-5D806B62BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -883,14 +883,14 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="7" bestFit="1" customWidth="1"/>
@@ -900,7 +900,7 @@
     <col min="10" max="10" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
@@ -1384,10 +1384,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>22</v>
@@ -1449,64 +1449,64 @@
         <v>11</v>
       </c>
       <c r="C9" s="19">
-        <v>45820</v>
+        <v>45839</v>
       </c>
       <c r="D9" s="19">
-        <v>45821</v>
+        <v>45841</v>
       </c>
       <c r="E9" s="19">
-        <v>45822</v>
+        <v>45842</v>
       </c>
       <c r="F9" s="19">
-        <v>45823</v>
+        <v>45843</v>
       </c>
       <c r="G9" s="19">
-        <v>45824</v>
+        <v>45844</v>
       </c>
       <c r="H9" s="19">
-        <v>45825</v>
+        <v>45845</v>
       </c>
       <c r="I9" s="19">
-        <v>45826</v>
+        <v>45846</v>
       </c>
       <c r="J9" s="19">
-        <v>45827</v>
+        <v>45847</v>
       </c>
       <c r="K9" s="19">
-        <v>45828</v>
+        <v>45848</v>
       </c>
       <c r="L9" s="19">
-        <v>45829</v>
+        <v>45849</v>
       </c>
       <c r="M9" s="19">
-        <v>45830</v>
+        <v>45850</v>
       </c>
       <c r="N9" s="19">
-        <v>45831</v>
+        <v>45851</v>
       </c>
       <c r="O9" s="19">
-        <v>45832</v>
+        <v>45852</v>
       </c>
       <c r="P9" s="19">
-        <v>45833</v>
+        <v>45853</v>
       </c>
       <c r="Q9" s="19">
-        <v>45834</v>
+        <v>45854</v>
       </c>
       <c r="R9" s="19">
-        <v>45835</v>
+        <v>45855</v>
       </c>
       <c r="S9" s="19">
-        <v>45836</v>
+        <v>45856</v>
       </c>
       <c r="T9" s="19">
-        <v>45837</v>
+        <v>45857</v>
       </c>
       <c r="U9" s="19">
-        <v>45838</v>
+        <v>45858</v>
       </c>
       <c r="V9" s="19">
-        <v>45839</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE08E8-3B37-F348-A564-5D806B62BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF359D-8C35-5C40-8A22-F5E07E24C094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="28">
   <si>
     <t>Wednesday</t>
   </si>
@@ -127,66 +127,6 @@
   </si>
   <si>
     <t>Block #3</t>
-  </si>
-  <si>
-    <t>Thursday, June 12, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 13, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 14, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 15, 2025</t>
-  </si>
-  <si>
-    <t>Monday, June 16, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 17, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 18, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 19, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 20, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 21, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 22, 2025</t>
-  </si>
-  <si>
-    <t>Monday, June 23, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, June 24, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, June 25, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, June 26, 2025</t>
-  </si>
-  <si>
-    <t>Friday, June 27, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, June 28, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, June 29, 2025</t>
-  </si>
-  <si>
-    <t>Monday, June 30, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, July 1, 2025</t>
   </si>
   <si>
     <t>Block #4</t>
@@ -883,14 +823,14 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="7" bestFit="1" customWidth="1"/>
@@ -899,17 +839,16 @@
     <col min="9" max="9" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.5" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="19.5" style="7"/>
   </cols>
   <sheetData>
@@ -1390,19 +1329,19 @@
         <v>24</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>22</v>
@@ -1449,64 +1388,64 @@
         <v>11</v>
       </c>
       <c r="C9" s="19">
+        <v>45838</v>
+      </c>
+      <c r="D9" s="19">
         <v>45839</v>
       </c>
-      <c r="D9" s="19">
+      <c r="E9" s="19">
+        <v>45840</v>
+      </c>
+      <c r="F9" s="19">
         <v>45841</v>
       </c>
-      <c r="E9" s="19">
+      <c r="G9" s="19">
         <v>45842</v>
       </c>
-      <c r="F9" s="19">
+      <c r="H9" s="19">
         <v>45843</v>
       </c>
-      <c r="G9" s="19">
+      <c r="I9" s="19">
         <v>45844</v>
       </c>
-      <c r="H9" s="19">
+      <c r="J9" s="19">
         <v>45845</v>
       </c>
-      <c r="I9" s="19">
+      <c r="K9" s="19">
         <v>45846</v>
       </c>
-      <c r="J9" s="19">
+      <c r="L9" s="19">
         <v>45847</v>
       </c>
-      <c r="K9" s="19">
+      <c r="M9" s="19">
         <v>45848</v>
       </c>
-      <c r="L9" s="19">
+      <c r="N9" s="19">
         <v>45849</v>
       </c>
-      <c r="M9" s="19">
+      <c r="O9" s="19">
         <v>45850</v>
       </c>
-      <c r="N9" s="19">
+      <c r="P9" s="19">
         <v>45851</v>
       </c>
-      <c r="O9" s="19">
+      <c r="Q9" s="19">
         <v>45852</v>
       </c>
-      <c r="P9" s="19">
+      <c r="R9" s="19">
         <v>45853</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="S9" s="19">
         <v>45854</v>
       </c>
-      <c r="R9" s="19">
+      <c r="T9" s="19">
         <v>45855</v>
       </c>
-      <c r="S9" s="19">
+      <c r="U9" s="19">
         <v>45856</v>
       </c>
-      <c r="T9" s="19">
+      <c r="V9" s="19">
         <v>45857</v>
-      </c>
-      <c r="U9" s="19">
-        <v>45858</v>
-      </c>
-      <c r="V9" s="19">
-        <v>45859</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -1515,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>22</v>
@@ -1577,70 +1516,70 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="U11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V11" s="30" t="s">
-        <v>46</v>
+      <c r="C11" s="30">
+        <v>45845</v>
+      </c>
+      <c r="D11" s="30">
+        <v>45846</v>
+      </c>
+      <c r="E11" s="30">
+        <v>45847</v>
+      </c>
+      <c r="F11" s="30">
+        <v>45848</v>
+      </c>
+      <c r="G11" s="30">
+        <v>45849</v>
+      </c>
+      <c r="H11" s="30">
+        <v>45850</v>
+      </c>
+      <c r="I11" s="30">
+        <v>45851</v>
+      </c>
+      <c r="J11" s="30">
+        <v>45852</v>
+      </c>
+      <c r="K11" s="30">
+        <v>45853</v>
+      </c>
+      <c r="L11" s="30">
+        <v>45854</v>
+      </c>
+      <c r="M11" s="30">
+        <v>45855</v>
+      </c>
+      <c r="N11" s="30">
+        <v>45856</v>
+      </c>
+      <c r="O11" s="30">
+        <v>45857</v>
+      </c>
+      <c r="P11" s="30">
+        <v>45858</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>45859</v>
+      </c>
+      <c r="R11" s="30">
+        <v>45860</v>
+      </c>
+      <c r="S11" s="30">
+        <v>45861</v>
+      </c>
+      <c r="T11" s="30">
+        <v>45862</v>
+      </c>
+      <c r="U11" s="30">
+        <v>45863</v>
+      </c>
+      <c r="V11" s="30">
+        <v>45864</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF359D-8C35-5C40-8A22-F5E07E24C094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3C17EC-730E-FA4D-BC78-2FF4F15FB39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1344,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L8" s="18" t="s">
         <v>22</v>
@@ -1457,7 +1457,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>22</v>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3C17EC-730E-FA4D-BC78-2FF4F15FB39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91E24C-5DEF-E44A-B6B8-D2DC67DB9C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1347,22 +1347,22 @@
         <v>24</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R8" s="18" t="s">
         <v>22</v>
@@ -1460,22 +1460,22 @@
         <v>24</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>22</v>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91E24C-5DEF-E44A-B6B8-D2DC67DB9C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF2168-3E2F-EB45-BC68-C0496777B7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="29">
   <si>
     <t>Wednesday</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Block #4</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1478,25 +1481,25 @@
         <v>24</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R10" s="18" t="s">
         <v>22</v>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAF2168-3E2F-EB45-BC68-C0496777B7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B6420-76CF-4F4B-813D-97467F1BAD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="30">
   <si>
     <t>Wednesday</t>
   </si>
@@ -132,7 +132,10 @@
     <t>Block #4</t>
   </si>
   <si>
-    <t>in progress</t>
+    <t>Block #5</t>
+  </si>
+  <si>
+    <t>Block #6</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDB3B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -427,13 +436,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -483,6 +540,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFDB3B"/>
       <color rgb="FF94DDFF"/>
       <color rgb="FFA2DAFF"/>
       <color rgb="FFAFD7FF"/>
@@ -490,7 +548,6 @@
       <color rgb="FFE5CAFF"/>
       <color rgb="FFF2C7FF"/>
       <color rgb="FFFFC3FF"/>
-      <color rgb="FFFFDB3B"/>
       <color rgb="FF8FC41C"/>
       <color rgb="FF6F9816"/>
     </mruColors>
@@ -823,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,24 +1023,14 @@
       <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
@@ -1034,21 +1081,11 @@
       <c r="Q3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>4</v>
-      </c>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -1099,21 +1136,11 @@
       <c r="Q4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="25"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
@@ -1167,21 +1194,11 @@
       <c r="Q5" s="19">
         <v>45825</v>
       </c>
-      <c r="R5" s="19">
-        <v>45826</v>
-      </c>
-      <c r="S5" s="19">
-        <v>45827</v>
-      </c>
-      <c r="T5" s="19">
-        <v>45828</v>
-      </c>
-      <c r="U5" s="19">
-        <v>45829</v>
-      </c>
-      <c r="V5" s="19">
-        <v>45830</v>
-      </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
@@ -1227,27 +1244,17 @@
       <c r="O6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="36" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
@@ -1301,21 +1308,11 @@
       <c r="Q7" s="19">
         <v>45845</v>
       </c>
-      <c r="R7" s="19">
-        <v>45846</v>
-      </c>
-      <c r="S7" s="19">
-        <v>45847</v>
-      </c>
-      <c r="T7" s="19">
-        <v>45848</v>
-      </c>
-      <c r="U7" s="19">
-        <v>45849</v>
-      </c>
-      <c r="V7" s="19">
-        <v>45850</v>
-      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
@@ -1361,27 +1358,17 @@
       <c r="O8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="36" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
@@ -1435,21 +1422,11 @@
       <c r="Q9" s="19">
         <v>45852</v>
       </c>
-      <c r="R9" s="19">
-        <v>45853</v>
-      </c>
-      <c r="S9" s="19">
-        <v>45854</v>
-      </c>
-      <c r="T9" s="19">
-        <v>45855</v>
-      </c>
-      <c r="U9" s="19">
-        <v>45856</v>
-      </c>
-      <c r="V9" s="19">
-        <v>45857</v>
-      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
     </row>
     <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
@@ -1498,24 +1475,14 @@
       <c r="P10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="V10" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
@@ -1525,65 +1492,55 @@
         <v>11</v>
       </c>
       <c r="C11" s="30">
-        <v>45845</v>
+        <v>45853</v>
       </c>
       <c r="D11" s="30">
-        <v>45846</v>
+        <v>45854</v>
       </c>
       <c r="E11" s="30">
-        <v>45847</v>
+        <v>45855</v>
       </c>
       <c r="F11" s="30">
-        <v>45848</v>
+        <v>45856</v>
       </c>
       <c r="G11" s="30">
-        <v>45849</v>
+        <v>45857</v>
       </c>
       <c r="H11" s="30">
-        <v>45850</v>
+        <v>45858</v>
       </c>
       <c r="I11" s="30">
-        <v>45851</v>
+        <v>45859</v>
       </c>
       <c r="J11" s="30">
-        <v>45852</v>
+        <v>45860</v>
       </c>
       <c r="K11" s="30">
-        <v>45853</v>
+        <v>45861</v>
       </c>
       <c r="L11" s="30">
-        <v>45854</v>
+        <v>45862</v>
       </c>
       <c r="M11" s="30">
-        <v>45855</v>
+        <v>45863</v>
       </c>
       <c r="N11" s="30">
-        <v>45856</v>
+        <v>45864</v>
       </c>
       <c r="O11" s="30">
-        <v>45857</v>
+        <v>45865</v>
       </c>
       <c r="P11" s="30">
-        <v>45858</v>
+        <v>45866</v>
       </c>
       <c r="Q11" s="30">
-        <v>45859</v>
-      </c>
-      <c r="R11" s="30">
-        <v>45860</v>
-      </c>
-      <c r="S11" s="30">
-        <v>45861</v>
-      </c>
-      <c r="T11" s="30">
-        <v>45862</v>
-      </c>
-      <c r="U11" s="30">
-        <v>45863</v>
-      </c>
-      <c r="V11" s="30">
-        <v>45864</v>
-      </c>
+        <v>45867</v>
+      </c>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
     </row>
     <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
@@ -1591,7 +1548,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>22</v>
@@ -1635,65 +1592,298 @@
       <c r="Q12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="18" t="s">
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30">
+        <v>45860</v>
+      </c>
+      <c r="D13" s="30">
+        <v>45854</v>
+      </c>
+      <c r="E13" s="30">
+        <v>45855</v>
+      </c>
+      <c r="F13" s="30">
+        <v>45856</v>
+      </c>
+      <c r="G13" s="30">
+        <v>45857</v>
+      </c>
+      <c r="H13" s="30">
+        <v>45858</v>
+      </c>
+      <c r="I13" s="30">
+        <v>45859</v>
+      </c>
+      <c r="J13" s="30">
+        <v>45860</v>
+      </c>
+      <c r="K13" s="30">
+        <v>45861</v>
+      </c>
+      <c r="L13" s="30">
+        <v>45862</v>
+      </c>
+      <c r="M13" s="30">
+        <v>45863</v>
+      </c>
+      <c r="N13" s="30">
+        <v>45864</v>
+      </c>
+      <c r="O13" s="30">
+        <v>45865</v>
+      </c>
+      <c r="P13" s="30">
+        <v>45866</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="30">
+        <v>45867</v>
+      </c>
+      <c r="D15" s="30">
+        <v>45854</v>
+      </c>
+      <c r="E15" s="30">
+        <v>45855</v>
+      </c>
+      <c r="F15" s="30">
+        <v>45856</v>
+      </c>
+      <c r="G15" s="30">
+        <v>45857</v>
+      </c>
+      <c r="H15" s="30">
+        <v>45858</v>
+      </c>
+      <c r="I15" s="30">
+        <v>45859</v>
+      </c>
+      <c r="J15" s="30">
+        <v>45860</v>
+      </c>
+      <c r="K15" s="30">
+        <v>45861</v>
+      </c>
+      <c r="L15" s="30">
+        <v>45862</v>
+      </c>
+      <c r="M15" s="30">
+        <v>45863</v>
+      </c>
+      <c r="N15" s="30">
+        <v>45864</v>
+      </c>
+      <c r="O15" s="30">
+        <v>45865</v>
+      </c>
+      <c r="P15" s="30">
+        <v>45866</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="18" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C6:V6">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:V8">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:V10">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C12:Q12">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="incomplete">
+      <formula>NOT(ISERROR(SEARCH("incomplete",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:Q14">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="incomplete">
+      <formula>NOT(ISERROR(SEARCH("incomplete",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:Q16">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="incomplete">
+      <formula>NOT(ISERROR(SEARCH("incomplete",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:V6 C8:V8 C10:V10" xr:uid="{0D58F301-E56C-1F45-9133-88DA3DDA2D35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:V6 C8:V8 C10:V10 C12:Q12 C14:Q14 C16:Q16" xr:uid="{0D58F301-E56C-1F45-9133-88DA3DDA2D35}">
       <formula1>"incomplete, in progress, complete"</formula1>
     </dataValidation>
   </dataValidations>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B6420-76CF-4F4B-813D-97467F1BAD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9E8716-D110-614E-94D9-34186F982DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -426,19 +426,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
       <c r="V4" s="25"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1201,7 +1201,7 @@
       <c r="V5" s="19"/>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="O6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="32" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="18" t="s">
@@ -1257,7 +1257,7 @@
       <c r="V6" s="18"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1315,7 +1315,7 @@
       <c r="V7" s="19"/>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="O8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="32" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="18" t="s">
@@ -1371,7 +1371,7 @@
       <c r="V8" s="18"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1429,7 +1429,7 @@
       <c r="V9" s="19"/>
     </row>
     <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="P10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="32" t="s">
         <v>24</v>
       </c>
       <c r="R10" s="18"/>
@@ -1551,13 +1551,13 @@
         <v>24</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>22</v>
@@ -1816,70 +1816,70 @@
     <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C12:Q12">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="incomplete">
+      <formula>NOT(ISERROR(SEARCH("incomplete",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:Q14">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="incomplete">
+      <formula>NOT(ISERROR(SEARCH("incomplete",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:Q16">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="in progress">
+      <formula>NOT(ISERROR(SEARCH("in progress",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="incomplete">
+      <formula>NOT(ISERROR(SEARCH("incomplete",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C6:V6">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:V8">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:V10">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:Q12">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="incomplete">
-      <formula>NOT(ISERROR(SEARCH("incomplete",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:Q14">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="incomplete">
-      <formula>NOT(ISERROR(SEARCH("incomplete",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:Q16">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="in progress">
-      <formula>NOT(ISERROR(SEARCH("in progress",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="incomplete">
-      <formula>NOT(ISERROR(SEARCH("incomplete",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="complete">
-      <formula>NOT(ISERROR(SEARCH("complete",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1913,11 +1913,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -2210,11 +2210,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -2500,11 +2500,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9E8716-D110-614E-94D9-34186F982DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BABB8FD-2643-2F44-AC04-B9A26B0DAF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="31">
   <si>
     <t>Wednesday</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Block #6</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -882,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1226,7 @@
       <c r="H6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="32" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="18" t="s">
@@ -1340,7 +1343,7 @@
       <c r="I8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="32" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="18" t="s">
@@ -1454,7 +1457,7 @@
       <c r="I10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="32" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="18" t="s">
@@ -1560,19 +1563,19 @@
         <v>24</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L12" s="18" t="s">
         <v>22</v>
@@ -1657,10 +1660,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>22</v>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BABB8FD-2643-2F44-AC04-B9A26B0DAF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810986B4-1FB1-554D-B136-F23B06BE8C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="30">
   <si>
     <t>Wednesday</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Block #6</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -448,7 +445,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -885,28 +897,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="22.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.6640625" style="7" bestFit="1" customWidth="1"/>
@@ -1575,25 +1587,25 @@
         <v>24</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
@@ -1612,46 +1624,46 @@
         <v>45860</v>
       </c>
       <c r="D13" s="30">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="E13" s="30">
-        <v>45855</v>
+        <v>45862</v>
       </c>
       <c r="F13" s="30">
-        <v>45856</v>
+        <v>45863</v>
       </c>
       <c r="G13" s="30">
-        <v>45857</v>
+        <v>45864</v>
       </c>
       <c r="H13" s="30">
-        <v>45858</v>
+        <v>45865</v>
       </c>
       <c r="I13" s="30">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="J13" s="30">
-        <v>45860</v>
+        <v>45867</v>
       </c>
       <c r="K13" s="30">
-        <v>45861</v>
+        <v>45868</v>
       </c>
       <c r="L13" s="30">
-        <v>45862</v>
+        <v>45869</v>
       </c>
       <c r="M13" s="30">
-        <v>45863</v>
+        <v>45870</v>
       </c>
       <c r="N13" s="30">
-        <v>45864</v>
+        <v>45871</v>
       </c>
       <c r="O13" s="30">
-        <v>45865</v>
+        <v>45872</v>
       </c>
       <c r="P13" s="30">
-        <v>45866</v>
+        <v>45873</v>
       </c>
       <c r="Q13" s="30">
-        <v>45867</v>
+        <v>45874</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -1663,28 +1675,28 @@
         <v>24</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>22</v>
@@ -1713,49 +1725,49 @@
         <v>11</v>
       </c>
       <c r="C15" s="30">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="D15" s="30">
-        <v>45854</v>
+        <v>45869</v>
       </c>
       <c r="E15" s="30">
-        <v>45855</v>
+        <v>45870</v>
       </c>
       <c r="F15" s="30">
-        <v>45856</v>
+        <v>45871</v>
       </c>
       <c r="G15" s="30">
-        <v>45857</v>
+        <v>45872</v>
       </c>
       <c r="H15" s="30">
-        <v>45858</v>
+        <v>45873</v>
       </c>
       <c r="I15" s="30">
-        <v>45859</v>
+        <v>45874</v>
       </c>
       <c r="J15" s="30">
-        <v>45860</v>
+        <v>45875</v>
       </c>
       <c r="K15" s="30">
-        <v>45861</v>
+        <v>45876</v>
       </c>
       <c r="L15" s="30">
-        <v>45862</v>
+        <v>45877</v>
       </c>
       <c r="M15" s="30">
-        <v>45863</v>
+        <v>45878</v>
       </c>
       <c r="N15" s="30">
-        <v>45864</v>
+        <v>45879</v>
       </c>
       <c r="O15" s="30">
-        <v>45865</v>
+        <v>45880</v>
       </c>
       <c r="P15" s="30">
-        <v>45866</v>
+        <v>45881</v>
       </c>
       <c r="Q15" s="30">
-        <v>45867</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -1764,7 +1776,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>22</v>
@@ -1820,68 +1832,68 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C12:Q12">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:Q14">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:Q16">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:V6">
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:V8">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:V10">
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C10)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810986B4-1FB1-554D-B136-F23B06BE8C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C3214A-3698-B84F-8D6B-BD3D45988E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="29">
   <si>
     <t>Wednesday</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Block #5</t>
-  </si>
-  <si>
-    <t>Block #6</t>
   </si>
 </sst>
 </file>
@@ -331,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -439,28 +436,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -897,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,61 +1620,61 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="43">
         <v>45860</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="43">
         <v>45861</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="43">
         <v>45862</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="43">
         <v>45863</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="43">
         <v>45864</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="43">
         <v>45865</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="43">
         <v>45866</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="43">
         <v>45867</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="43">
         <v>45868</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="43">
         <v>45869</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="43">
         <v>45870</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="43">
         <v>45871</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="43">
         <v>45872</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="43">
         <v>45873</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="43">
         <v>45874</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1699,7 +1705,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M14" s="18" t="s">
         <v>22</v>
@@ -1718,112 +1724,45 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="30">
-        <v>45868</v>
-      </c>
-      <c r="D15" s="30">
-        <v>45869</v>
-      </c>
-      <c r="E15" s="30">
-        <v>45870</v>
-      </c>
-      <c r="F15" s="30">
-        <v>45871</v>
-      </c>
-      <c r="G15" s="30">
-        <v>45872</v>
-      </c>
-      <c r="H15" s="30">
-        <v>45873</v>
-      </c>
-      <c r="I15" s="30">
-        <v>45874</v>
-      </c>
-      <c r="J15" s="30">
-        <v>45875</v>
-      </c>
-      <c r="K15" s="30">
-        <v>45876</v>
-      </c>
-      <c r="L15" s="30">
-        <v>45877</v>
-      </c>
-      <c r="M15" s="30">
-        <v>45878</v>
-      </c>
-      <c r="N15" s="30">
-        <v>45879</v>
-      </c>
-      <c r="O15" s="30">
-        <v>45880</v>
-      </c>
-      <c r="P15" s="30">
-        <v>45881</v>
-      </c>
-      <c r="Q15" s="30">
-        <v>45882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A15:A16"/>
+  <mergeCells count="5">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -1832,68 +1771,68 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C12:Q12">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:Q14">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:Q16">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:V6">
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:V8">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:V10">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="incomplete">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="incomplete">
       <formula>NOT(ISERROR(SEARCH("incomplete",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",C10)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/eco_trap_fecundity_schedule.xlsx
+++ b/eco_trap_fecundity_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griffinpatel/Desktop/Hendry_Lab/eco_traps_fecundity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C3214A-3698-B84F-8D6B-BD3D45988E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8683AB1D-320A-B04C-86FA-341B7EA3BB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17700" xr2:uid="{83CEB233-BB5C-D846-931E-08D6C0BFC9BF}"/>
   </bookViews>
@@ -426,40 +426,40 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A31031-E34A-5E4F-A31E-14082BC8E834}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
       <c r="V4" s="25"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1222,7 +1222,7 @@
       <c r="V5" s="19"/>
     </row>
     <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="V6" s="18"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1336,7 +1336,7 @@
       <c r="V7" s="19"/>
     </row>
     <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
@@ -1392,7 +1392,7 @@
       <c r="V8" s="18"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1450,7 +1450,7 @@
       <c r="V9" s="19"/>
     </row>
     <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="V10" s="18"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -1564,7 +1564,7 @@
       <c r="V11" s="30"/>
     </row>
     <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="31" t="s">
         <v>19</v>
       </c>
@@ -1620,61 +1620,61 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="39">
         <v>45860</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="39">
         <v>45861</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="39">
         <v>45862</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="39">
         <v>45863</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="39">
         <v>45864</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="39">
         <v>45865</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="39">
         <v>45866</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="39">
         <v>45867</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="39">
         <v>45868</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="39">
         <v>45869</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="39">
         <v>45870</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="39">
         <v>45871</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="39">
         <v>45872</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="39">
         <v>45873</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q13" s="39">
         <v>45874</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
@@ -1708,7 +1708,7 @@
         <v>24</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N14" s="18" t="s">
         <v>22</v>
@@ -1724,42 +1724,42 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1867,11 +1867,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -2164,11 +2164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -2454,11 +2454,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
